--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB5642A-CFEF-4CF2-A163-F1CB55F1B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="11115" yWindow="1545" windowWidth="17250" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Doi</t>
   </si>
@@ -57,9 +64,6 @@
     <t>10.1016/j.scitotenv.2020.138539</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/doi/10.4081/jphr.2020.2011</t>
-  </si>
-  <si>
     <t>10.2139/ssrn.3592912</t>
   </si>
   <si>
@@ -75,18 +79,27 @@
     <t>Authors</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID Format</t>
+  </si>
+  <si>
+    <t>Date Accepted</t>
+  </si>
+  <si>
+    <t>10.4081/jphr.2020.2011</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
     <t>Unknown Title</t>
   </si>
   <si>
     <t>Unknown Abstract</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID Format</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -96,29 +109,13 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Date Accepted</t>
-  </si>
-  <si>
     <t>1970-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Early detection of superspreaders by mass group pool testing can mitigate COVID-19 pandemic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackgroundMost of epidemiological models applied for COVID-19 do not consider heterogeneity in infectiousness and impact of superspreaders, despite the broad viral loading distributions amongst COVID-19 positive people (1 - 106 per mL). Also, mass group testing is not used regardless to existing shortage of tests. I propose new strategy for early detection of superspreaders with reasonable number of RT-PCR tests, which can dramatically mitigate development COVID-19 pandemic and even turn it endemic.
-MethodsI used stochastic social-epidemiological SEIAR model, where S-suspected, E-exposed, I-infectious, A-admitted (confirmed COVID-19 positive, who are admitted to hospital or completely isolated), R-recovered. The model was applied to real COVID-19 dynamics in London, Moscow and New York City.
-FindingsViral loading data measured by RT-PCR were fitted by broad log-normal distribution, which governed high importance of superspreaders. The proposed full scale model of a metropolis shows that top 10% spreaders (100+ higher viral loading than median infector) transmit 45% of new cases. Rapid isolation of superspreaders leads to 4-8 fold mitigation of pandemic depending on applied quarantine strength and amount of currently infected people. High viral loading allows efficient group "matrix" pool testing of population focused on detection of the superspreaders requiring remarkably small amount of tests.
-InterpretationThe model and new testing strategy may prevent thousand or millions COVID-19 deaths requiring just about 5000 daily RT-PCR test for big 12 million city such as Moscow. Though applied to COVID-19 pandemic the results are universal and can be used for other infectious heterogenous epidemics.
-FundingNo funding </t>
-  </si>
-  <si>
-    <t>[ M. B. %Gongalsky%null%1]</t>
-  </si>
-  <si>
-    <t>medrxiv doi</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
+    <t/>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
   </si>
   <si>
     <t>A stochastic agent-based model of the SARS-CoV-2 epidemic in France</t>
@@ -214,18 +211,6 @@
     <t>2020-04-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Population-scale testing can suppress the spread of COVID-19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We propose an additional intervention that would contribute to the control of the COVID-19 pandemic, offer more protection for people working in essential jobs, and help guide an eventual reopening of society. The intervention is based on: (1) testing every individual (2) repeatedly, and (3) self-quarantine of infected individuals. Using a standard epidemiological model (SIR), we show here that by identification and isolation of the majority of infectious individuals, including those who may be asymptomatic, the reproduction number R0 of SARS-CoV-2 would be reduced well below 1.0, and the epidemic would collapse. We replicate these observations in a more complex stochastic dynamic model on a social network graph. We also find that the testing regime would be additive to other interventions, and be effective at any level of prevalence. If adopted as a policy, any industrial society could sustain the regime for as long as it takes to find a safe and effective cure or vaccine. Our model also indicates that unlike sampling-based tests, population-scale testing does not need to be very accurate: false negative rates up to 15% could be tolerated if 80% comply with testing every ten days, and false positives can be almost arbitrarily high when a high fraction of the population is already effectively quarantined. Testing at the required scale would be feasible if existing qPCR-based methods are scaled up and multiplexed. A mass produced, low throughput field test kit could also be carried out at home. Economic analysis also supports the feasibility of the approach: current reagent costs for tests are in the range of a dollar or less, and the estimated benefits for population-scale testing are so large that the policy would be cost-effective even if the costs were larger by more than two orders of magnitude. To identify both active and previous infections, both viral RNA and antibodies could be tested. All technologies to build such test kits, and to produce them in the scale required to test the entire worlds population exist already. Integrating them, scaling up production, and implementing the testing regime will require resources and planning, but at a scale that is very small compared to the effort that every nation would devote to defending itself against a more traditional foe. </t>
-  </si>
-  <si>
-    <t>[ J.%Taipale%null%1,  P.% Romer%null%1,  S. % Linnarsson%null%1]</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
     <t>Evaluation of the lockdowns for the SARS-CoV-2 epidemic in Italy and Spain after one month follow up</t>
   </si>
   <si>
@@ -248,6 +233,35 @@
     <t>2020-04-05</t>
   </si>
   <si>
+    <t>_elsevier</t>
+  </si>
+  <si>
+    <t>Mass screening vs lockdown vs combination of both to control COVID-19: A systematic review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) is a global pandemic.
+ Non-pharmacological interventions, such as lockdown and mass testing, remain as the mainstay of control measures for the outbreak.
+ We aim to evaluate the effectiveness of mass testing, lockdown, or a combination of both to control COVID-19 pandemic.
+ A systematic search on 11 major databases was conducted on June 8, 2020. This review is registered in Prospero (CRD420201 90546).
+ We included primary studies written in English which investigate mass screening, lockdown, or a combination of both to control and/or mitigate the COVID-19 pandemic.
+ There are four important outcomes as selected by WHO experts for their decision- making process: incident cases, onward transmission, mortality, and resource use.
+ Among 623 studies, only 14 studies met our criteria.
+ Four observational studies were rated as strong evidence and ten modelling studies were rated as moderate evidence.
+ Based on one modelling study, mass testing reduced the total infected people compared to no mass testing.
+ For lockdown, ten studies consistently showed that it successfully reduced the incidence, onward transmission, and mortality rate of COVID-19. A limited evidence showed that a combination of lockdown and mass screening resulted in a greater reduction of incidence and mortality rate compared to lockdown only.
+ However, there is not enough evidence on the effectiveness of mass testing only.
+</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1, Henrico%Citrawijaya%NULL%1, Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7771023</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
     <t>The effectiveness of quarantine and isolation determine the trend of the COVID-19 epidemics in the final phase of the current outbreak in China</t>
   </si>
   <si>
@@ -265,120 +279,47 @@
   <si>
     <t>2020-03-06</t>
   </si>
-  <si>
-    <t>Heterogeneous social interactions and the COVID-19 lockdown outcome in a multi-group SEIR model</t>
-  </si>
-  <si>
-    <t>We study variants of the SEIR model for interpreting some qualitative features of the statistics of the Covid-19 epidemic in France.
- Standard SEIR models distinguish essentially two regimes: either the disease is controlled and the number of infected people rapidly decreases, or the disease spreads and contaminates a significant fraction of the population until herd immunity is achieved.
- After lockdown, at first sight it seems that social distancing is not enough to control the outbreak.
- We discuss here a possible explanation, namely that the lockdown is creating social heterogeneity: even if a large majority of the population complies with the lockdown rules, a small fraction of the population still has to maintain a normal or high level of social interactions, such as health workers, providers of essential services, etc.
- This results in an apparent high level of epidemic propagation as measured through re-estimations of the basic reproduction ratio.
- However, these measures are limited to averages, while variance inside the population plays an essential role on the peak and the size of the epidemic outbreak and tends to lower these two indicators.
- We provide theoretical and numerical results to sustain such a view</t>
-  </si>
-  <si>
-    <t>[Gabriel%Turinici%coreGivesNoEmail%1, Jean%Dolbeault%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[ Nicolas%Hoertel%null%1,   Martin%Blachier%null%1,   Carlos%Blanco%null%1,   Mark%Olfson%null%1,   Marc%Massetti%null%1,   Marina Sánchez%Rico%null%1,   Frédéric%Limosin%null%1,   Henri%Leleu%null%1]</t>
-  </si>
-  <si>
-    <t>[Tuo%Ji%NULL%1,  Hai-Lian%Chen%NULL%1,  Jing%Xu%NULL%0,  Ling-Ning%Wu%NULL%1,  Jie-Jia%Li%NULL%1,  Kai%Chen%NULL%1,  Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>The effectiveness of quarantine of Wuhan city against the Corona Virus Disease 2019 (COVID\u201019): A well\u2010mixed SEIR model analysis</t>
-  </si>
-  <si>
-    <t>[Gong%J%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Hien%Lau%hlau2@uci.edu%1,  Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,  Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,  Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,  Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,  Jacek%Bania%jacek.bania@upwr.edu.pl%1,  Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Carlo%Signorelli%NULL%1,  Thea%Scognamiglio%NULL%1,  Anna%Odone%NULL%1]</t>
-  </si>
-  <si>
-    <t>[ J.%Taipale%null%1,   P.% Romer%null%1,   S. % Linnarsson%null%1]</t>
-  </si>
-  <si>
-    <t>[Biao%Tang%NULL%1,  Fan%Xia%NULL%1,  Sanyi%Tang%NULL%1,  Nicola Luigi%Bragazzi%NULL%1,  Qian%Li%NULL%0,  Xiaodan%Sun%NULL%1,  Juhua%Liang%NULL%1,  Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,  Jianhong%Wu%wujh@yorku.ca%1]</t>
-  </si>
-  <si>
-    <t>OBJECTIVES\nSince January 23rd 2020, stringent measures for controlling the novel coronavirus epidemics have been gradually enforced and strengthened in mainland China.
- The detection and diagnosis have been improved as well.
- However, the daily reported cases staying in a high level make the epidemics trend prediction difficult.
-\nMETHODS\nSince the traditional SEIR model does not evaluate the effectiveness of control strategies, a novel model in line with the current epidemics process and control measures was proposed, utilizing multisource datasets including cumulative number of reported, death, quarantined and suspected cases.
-\nRESULTS\nResults show that the trend of the epidemics mainly depends on quarantined and suspected cases.
- The predicted cumulative numbers of quarantined and suspected cases nearly reached static states and their inflection points have already been achieved, with the epidemics peak coming soon.
- The estimated effective reproduction numbers using model-free and model-based methods are decreasing, as well as new infections, while new reported cases are increasing.
- Most infected cases have been quarantined or put in suspected class, which has been ignored in existing models.
-\nCONCLUSIONS\nThe uncertainty analyses reveal that the epidemics is still uncertain and it is important to continue enhancing the quarantine and isolation strategy and improving the detection rate in mainland China</t>
-  </si>
-  <si>
-    <t>[Bragazzi%Nicola Luigi%coreGivesNoEmail%1, Li%Qian%coreGivesNoEmail%1, Liang%Juhua%coreGivesNoEmail%1, Sun%Xiaodan%coreGivesNoEmail%1, Tang%Biao%coreGivesNoEmail%1, Tang%Sanyi%coreGivesNoEmail%1, Wu%Jianhong%coreGivesNoEmail%1, Xia%Fan%coreGivesNoEmail%1, Xiao%Yanni%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Gabriel%Turinici%coreGivesNoEmail%1,  Jean%Dolbeault%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[ Nicolas%Hoertel%null%1,    Martin%Blachier%null%1,    Carlos%Blanco%null%1,    Mark%Olfson%null%1,    Marc%Massetti%null%1,    Marina Sánchez%Rico%null%1,    Frédéric%Limosin%null%1,    Henri%Leleu%null%1]</t>
-  </si>
-  <si>
-    <t>[Tuo%Ji%NULL%1,   Hai-Lian%Chen%NULL%1,   Jing%Xu%NULL%0,   Ling-Ning%Wu%NULL%1,   Jie-Jia%Li%NULL%1,   Kai%Chen%NULL%1,   Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Hien%Lau%hlau2@uci.edu%1,   Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,   Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,   Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,   Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,   Jacek%Bania%jacek.bania@upwr.edu.pl%1,   Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Carlo%Signorelli%NULL%1,   Thea%Scognamiglio%NULL%1,   Anna%Odone%NULL%1]</t>
-  </si>
-  <si>
-    <t>[ J.%Taipale%null%1,    P.% Romer%null%1,    S. % Linnarsson%null%1]</t>
-  </si>
-  <si>
-    <t>[Bragazzi%Nicola Luigi%coreGivesNoEmail%1,  Li%Qian%coreGivesNoEmail%1,  Liang%Juhua%coreGivesNoEmail%1,  Sun%Xiaodan%coreGivesNoEmail%1,  Tang%Biao%coreGivesNoEmail%1,  Tang%Sanyi%coreGivesNoEmail%1,  Wu%Jianhong%coreGivesNoEmail%1,  Xia%Fan%coreGivesNoEmail%1,  Xiao%Yanni%coreGivesNoEmail%1]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd mmmm yyyy"/>
-    <numFmt numFmtId="166" formatCode="mmmm yyyy"/>
-    <numFmt numFmtId="167" formatCode="d mmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -386,7 +327,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -402,74 +343,65 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -659,20 +591,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,51 +617,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>44026.0</v>
+        <v>44026</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -732,129 +675,144 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6">
-        <v>44026.0</v>
+        <v>44026</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <v>43928.0</v>
+        <v>43928</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <v>43924.0</v>
+        <v>43924</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
-        <v>43891.0</v>
+      <c r="B7" s="9">
+        <v>43891</v>
       </c>
       <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -862,25 +820,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -888,121 +849,154 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="12">
-        <v>44022.0</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43894</v>
+      </c>
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13">
-        <v>43894.0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="13">
+        <v>43998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>43983</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="14">
-        <v>43998.0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="15">
-        <v>43983.0</v>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A5"/>
-    <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="A8"/>
-    <hyperlink r:id="rId5" ref="A10"/>
-    <hyperlink r:id="rId6" ref="A11"/>
-    <hyperlink r:id="rId7" ref="A12"/>
-    <hyperlink r:id="rId8" ref="A13"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://journals.sagepub.com/doi/10.4081/jphr.2020.2011" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>Doi</t>
   </si>
@@ -278,6 +278,30 @@
   </si>
   <si>
     <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%2,   Martin%Blachier%null%1,   Carlos%Blanco%null%1,   Mark%Olfson%null%1,   Marc%Massetti%null%1,   Marina Sánchez%Rico%null%1,   Frédéric%Limosin%null%1,   Henri%Leleu%null%1,  Nicolas%Hoertel%null%0,  Martin%Blachier%null%1,  Carlos%Blanco%null%1,  Mark%Olfson%null%1,  Marc%Massetti%null%1,  Marina Sánchez%Rico%null%1,  Frédéric%Limosin%null%1,  Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,  Hai-Lian%Chen%NULL%1,  Jing%Xu%NULL%1,  Ling-Ning%Wu%NULL%1,  Jie-Jia%Li%NULL%1,  Kai%Chen%NULL%1,  Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,  Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,  Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,  Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,  Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,  Jacek%Bania%jacek.bania@upwr.edu.pl%1,  Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,  Thea%Scognamiglio%NULL%1,  Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_PMC</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,  Henrico%Citrawijaya%NULL%1,  Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,  Fan%Xia%NULL%1,  Sanyi%Tang%NULL%1,  Nicola Luigi%Bragazzi%NULL%1,  Qian%Li%NULL%1,  Xiaodan%Sun%NULL%1,  Juhua%Liang%NULL%1,  Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,  Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -710,7 +734,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -739,7 +763,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -751,7 +775,7 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -797,7 +821,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -809,7 +833,7 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -826,7 +850,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -838,7 +862,7 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -896,7 +920,7 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -913,7 +937,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -925,7 +949,7 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -971,7 +995,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
@@ -983,7 +1007,7 @@
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="93">
   <si>
     <t>Doi</t>
   </si>
@@ -302,6 +302,60 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,  Fan%Xia%NULL%1,  Sanyi%Tang%NULL%1,  Nicola Luigi%Bragazzi%NULL%1,  Qian%Li%NULL%1,  Xiaodan%Sun%NULL%1,  Juhua%Liang%NULL%1,  Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,  Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,    Martin%Blachier%null%1,    Carlos%Blanco%null%1,    Mark%Olfson%null%1,    Marc%Massetti%null%1,    Marina Sánchez%Rico%null%1,    Frédéric%Limosin%null%1,    Henri%Leleu%null%1,   Nicolas%Hoertel%null%1,   Martin%Blachier%null%1,   Carlos%Blanco%null%1,   Mark%Olfson%null%1,   Marc%Massetti%null%1,   Marina Sánchez%Rico%null%1,   Frédéric%Limosin%null%1,   Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,   Hai-Lian%Chen%NULL%1,   Jing%Xu%NULL%1,   Ling-Ning%Wu%NULL%1,   Jie-Jia%Li%NULL%1,   Kai%Chen%NULL%1,   Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,   Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,   Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,   Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,   Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,   Jacek%Bania%jacek.bania@upwr.edu.pl%1,   Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,   Thea%Scognamiglio%NULL%1,   Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,   Henrico%Citrawijaya%NULL%1,   Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,   Fan%Xia%NULL%1,   Sanyi%Tang%NULL%1,   Nicola Luigi%Bragazzi%NULL%1,   Qian%Li%NULL%1,   Xiaodan%Sun%NULL%1,   Juhua%Liang%NULL%1,   Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,   Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,     Martin%Blachier%null%1,     Carlos%Blanco%null%1,     Mark%Olfson%null%1,     Marc%Massetti%null%1,     Marina Sánchez%Rico%null%1,     Frédéric%Limosin%null%1,     Henri%Leleu%null%1,    Nicolas%Hoertel%null%1,    Martin%Blachier%null%1,    Carlos%Blanco%null%1,    Mark%Olfson%null%1,    Marc%Massetti%null%1,    Marina Sánchez%Rico%null%1,    Frédéric%Limosin%null%1,    Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,    Hai-Lian%Chen%NULL%1,    Jing%Xu%NULL%1,    Ling-Ning%Wu%NULL%1,    Jie-Jia%Li%NULL%1,    Kai%Chen%NULL%1,    Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,    Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,    Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,    Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,    Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,    Jacek%Bania%jacek.bania@upwr.edu.pl%1,    Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,    Thea%Scognamiglio%NULL%1,    Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,    Henrico%Citrawijaya%NULL%1,    Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,    Fan%Xia%NULL%1,    Sanyi%Tang%NULL%1,    Nicola Luigi%Bragazzi%NULL%1,    Qian%Li%NULL%1,    Xiaodan%Sun%NULL%1,    Juhua%Liang%NULL%1,    Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,    Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,      Martin%Blachier%null%1,      Carlos%Blanco%null%1,      Mark%Olfson%null%1,      Marc%Massetti%null%1,      Marina Sánchez%Rico%null%1,      Frédéric%Limosin%null%1,      Henri%Leleu%null%1,     Nicolas%Hoertel%null%1,     Martin%Blachier%null%1,     Carlos%Blanco%null%1,     Mark%Olfson%null%1,     Marc%Massetti%null%1,     Marina Sánchez%Rico%null%1,     Frédéric%Limosin%null%1,     Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,     Hai-Lian%Chen%NULL%1,     Jing%Xu%NULL%1,     Ling-Ning%Wu%NULL%1,     Jie-Jia%Li%NULL%1,     Kai%Chen%NULL%1,     Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,     Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,     Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,     Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,     Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,     Jacek%Bania%jacek.bania@upwr.edu.pl%1,     Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,     Thea%Scognamiglio%NULL%1,     Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,     Henrico%Citrawijaya%NULL%1,     Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,     Fan%Xia%NULL%1,     Sanyi%Tang%NULL%1,     Nicola Luigi%Bragazzi%NULL%1,     Qian%Li%NULL%1,     Xiaodan%Sun%NULL%1,     Juhua%Liang%NULL%1,     Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,     Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -717,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -734,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -763,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -821,7 +875,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -850,7 +904,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -891,7 +945,7 @@
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -937,7 +991,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -995,7 +1049,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="128">
   <si>
     <t>Doi</t>
   </si>
@@ -356,6 +356,142 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,     Fan%Xia%NULL%1,     Sanyi%Tang%NULL%1,     Nicola Luigi%Bragazzi%NULL%1,     Qian%Li%NULL%1,     Xiaodan%Sun%NULL%1,     Juhua%Liang%NULL%1,     Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,     Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>"Heterogeneous social interactions and the COVID-19 lockdown outcome in a multi-group SEIR model"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We study variants of the SEIR model for interpreting some qualitative features of the statistics of the Covid-19 epidemic in France.
+ Standard SEIR models distinguish essentially two regimes: either the disease is controlled and the number of infected people rapidly decreases, or the disease spreads and contaminates a significant fraction of the population until herd immunity is achieved.
+ After lockdown, at first sight it seems that social distancing is not enough to control the outbreak.
+ We discuss here a possible explanation, namely that the lockdown is creating social heterogeneity: even if a large majority of the population complies with the lockdown rules, a small fraction of the population still has to maintain a normal or high level of social interactions, such as health workers, providers of essential services, etc.
+ This results in an apparent high level of epidemic propagation as measured through re-estimations of the basic reproduction ratio.
+ However, these measures are limited to averages, while variance inside the population plays an essential role on the peak and the size of the epidemic outbreak and tends to lower these two indicators.
+ We provide theoretical and numerical results to sustain such a view.
+</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1, Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-02</t>
+  </si>
+  <si>
+    <t>"Early detection of superspreaders by mass group pool testing can mitigate COVID-19 pandemic"</t>
+  </si>
+  <si>
+    <t>"SummaryBackgroundMost of epidemiological models applied for COVID-19 do not consider heterogeneity in infectiousness and impact of superspreaders, despite the broad viral loading distributions amongst COVID-19 positive people (1 \u2013 106 per mL).
+ Also, mass group testing is not used regardless to existing shortage of tests.
+ I propose new strategy for early detection of superspreaders with reasonable number of RT-PCR tests, which can dramatically mitigate development COVID-19 pandemic and even turn it endemic.
+MethodsI used stochastic social-epidemiological SEIAR model, where S-suspected, E-exposed, I-infectious, A-admitted (confirmed COVID-19 positive, who are admitted to hospital or completely isolated), R-recovered.
+ The model was applied to real COVID-19 dynamics in London, Moscow and New York City.
+FindingsViral loading data measured by RT-PCR were fitted by broad log-normal distribution, which governed high importance of superspreaders.
+ The proposed full scale model of a metropolis shows that top 10% spreaders (100+ higher viral loading than median infector) transmit 45% of new cases.
+ Rapid isolation of superspreaders leads to 4-8 fold mitigation of pandemic depending on applied quarantine strength and amount of currently infected people.
+ High viral loading allows efficient group \u201cmatrix\u201d pool testing of population focused on detection of the superspreaders requiring remarkably small amount of tests.
+InterpretationThe model and new testing strategy may prevent thousand or millions COVID-19 deaths requiring just about 5000 daily RT-PCR test for big 12 million city such as Moscow.
+ Though applied to COVID-19 pandemic the results are universal and can be used for other infectious heterogenous epidemics.
+FundingNo funding</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,       Martin%Blachier%null%1,       Carlos%Blanco%null%1,       Mark%Olfson%null%1,       Marc%Massetti%null%1,       Marina Sánchez%Rico%null%1,       Frédéric%Limosin%null%1,       Henri%Leleu%null%1,      Nicolas%Hoertel%null%1,      Martin%Blachier%null%1,      Carlos%Blanco%null%1,      Mark%Olfson%null%1,      Marc%Massetti%null%1,      Marina Sánchez%Rico%null%1,      Frédéric%Limosin%null%1,      Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,      Hai-Lian%Chen%NULL%1,      Jing%Xu%NULL%1,      Ling-Ning%Wu%NULL%1,      Jie-Jia%Li%NULL%1,      Kai%Chen%NULL%1,      Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"The effectiveness of quarantine of Wuhan city against the Corona Virus Disease 2019 (COVID\u201019): A well\u2010mixed SEIR model analysis"</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1, Jiaxin%Chen%xref no email%1, Yaqing%Zhou%xref no email%1, Lei%Hua%xref no email%1, Jinxia%Yuan%xref no email%1, Shu%He%xref no email%1, Yi%Guo%xref no email%1, Sheng%Zhang%xref no email%2, Qiaowei%Jia%xref no email%1, Chenhui%Zhao%xref no email%1, Jing%Zhang%xref no email%1, Guangxu%Xu%xref no email%1, Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,      Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,      Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,      Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,      Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,      Jacek%Bania%jacek.bania@upwr.edu.pl%1,      Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,      Thea%Scognamiglio%NULL%1,      Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Population-scale testing can suppress the spread of COVID-19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We propose an additional intervention that would contribute to the control of the COVID-19 pandemic, offer more protection for people working in essential jobs, and help guide an eventual reopening of society.
+ The intervention is based on: (1) testing every individual (2) repeatedly, and (3) self-quarantine of infected individuals.
+ Using a standard epidemiological model (SIR), we show here that by identification and isolation of the majority of infectious individuals, including those who may be asymptomatic, the reproduction number R0of SARS-CoV-2 would be reduced well below 1.0, and the epidemic would collapse.
+ We replicate these observations in a more complex stochastic dynamic model on a social network graph.
+ We also find that the testing regime would be additive to other interventions, and be effective at any level of prevalence.
+ If adopted as a policy, any industrial society could sustain the regime for as long as it takes to find a safe and effective cure or vaccine.
+ Our model also indicates that unlike sampling-based tests, population-scale testing does not need to be very accurate: false negative rates up to 15% could be tolerated if 80% comply with testing every ten days, and false positives can be almost arbitrarily high when a high fraction of the population is already effectively quarantined.
+ Testing at the required scale would be feasible if existing qPCR-based methods are scaled up and multiplexed.
+ A mass produced, low throughput field test kit could also be carried out at home.
+ Economic analysis also supports the feasibility of the approach: current reagent costs for tests are in the range of a dollar or less, and the estimated benefits for population-scale testing are so large that the policy would be cost-effective even if the costs were larger by more than two orders of magnitude.
+ To identify both active and previous infections, both viral RNA and antibodies could be tested.
+ All technologies to build such test kits, and to produce them in the scale required to test the entire worlds\u2019 population exist already.
+ Integrating them, scaling up production, and implementing the testing regime will require resources and planning, but at a scale that is very small compared to the effort that every nation would devote to defending itself against a more traditional foe.
+</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1, Paul%Romer%xref no email%1, Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,      Henrico%Citrawijaya%NULL%1,      Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Price of Delay in Covid-19 Lockdowns: Delays Spike Total Cases, Natural Experiments Reveal"</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1, Ashish%Sood%xref no email%1, Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,      Fan%Xia%NULL%1,      Sanyi%Tang%NULL%1,      Nicola Luigi%Bragazzi%NULL%1,      Qian%Li%NULL%1,      Xiaodan%Sun%NULL%1,      Juhua%Liang%NULL%1,      Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,      Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,  Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,        Martin%Blachier%null%1,        Carlos%Blanco%null%1,        Mark%Olfson%null%1,        Marc%Massetti%null%1,        Marina Sánchez%Rico%null%1,        Frédéric%Limosin%null%1,        Henri%Leleu%null%1,       Nicolas%Hoertel%null%1,       Martin%Blachier%null%1,       Carlos%Blanco%null%1,       Mark%Olfson%null%1,       Marc%Massetti%null%1,       Marina Sánchez%Rico%null%1,       Frédéric%Limosin%null%1,       Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,       Hai-Lian%Chen%NULL%1,       Jing%Xu%NULL%1,       Ling-Ning%Wu%NULL%1,       Jie-Jia%Li%NULL%1,       Kai%Chen%NULL%1,       Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,  Jiaxin%Chen%xref no email%1,  Yaqing%Zhou%xref no email%1,  Lei%Hua%xref no email%1,  Jinxia%Yuan%xref no email%1,  Shu%He%xref no email%1,  Yi%Guo%xref no email%1,  Sheng%Zhang%xref no email%2,  Qiaowei%Jia%xref no email%1,  Chenhui%Zhao%xref no email%1,  Jing%Zhang%xref no email%1,  Guangxu%Xu%xref no email%1,  Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,       Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,       Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,       Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,       Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,       Jacek%Bania%jacek.bania@upwr.edu.pl%1,       Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,       Thea%Scognamiglio%NULL%1,       Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,  Paul%Romer%xref no email%1,  Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,       Henrico%Citrawijaya%NULL%1,       Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,  Ashish%Sood%xref no email%1,  Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,       Fan%Xia%NULL%1,       Sanyi%Tang%NULL%1,       Nicola Luigi%Bragazzi%NULL%1,       Qian%Li%NULL%1,       Xiaodan%Sun%NULL%1,       Juhua%Liang%NULL%1,       Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,       Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -724,22 +860,22 @@
         <v>44026</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
@@ -753,22 +889,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -788,7 +924,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -817,7 +953,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -840,22 +976,22 @@
         <v>43924</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
@@ -875,7 +1011,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -904,7 +1040,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -927,22 +1063,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
@@ -991,7 +1127,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1014,22 +1150,22 @@
         <v>43998</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
         <v>30</v>
@@ -1049,7 +1185,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="149">
   <si>
     <t>Doi</t>
   </si>
@@ -492,6 +492,79 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,       Fan%Xia%NULL%1,       Sanyi%Tang%NULL%1,       Nicola Luigi%Bragazzi%NULL%1,       Qian%Li%NULL%1,       Xiaodan%Sun%NULL%1,       Juhua%Liang%NULL%1,       Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,       Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,   Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,         Martin%Blachier%null%1,         Carlos%Blanco%null%1,         Mark%Olfson%null%1,         Marc%Massetti%null%1,         Marina Sánchez%Rico%null%1,         Frédéric%Limosin%null%1,         Henri%Leleu%null%1,        Nicolas%Hoertel%null%1,        Martin%Blachier%null%1,        Carlos%Blanco%null%1,        Mark%Olfson%null%1,        Marc%Massetti%null%1,        Marina Sánchez%Rico%null%1,        Frédéric%Limosin%null%1,        Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,        Hai-Lian%Chen%NULL%1,        Jing%Xu%NULL%1,        Ling-Ning%Wu%NULL%1,        Jie-Jia%Li%NULL%1,        Kai%Chen%NULL%1,        Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,   Jiaxin%Chen%xref no email%1,   Yaqing%Zhou%xref no email%1,   Lei%Hua%xref no email%1,   Jinxia%Yuan%xref no email%1,   Shu%He%xref no email%1,   Yi%Guo%xref no email%1,   Sheng%Zhang%xref no email%2,   Qiaowei%Jia%xref no email%1,   Chenhui%Zhao%xref no email%1,   Jing%Zhang%xref no email%1,   Guangxu%Xu%xref no email%1,   Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,        Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,        Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,        Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,        Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,        Jacek%Bania%jacek.bania@upwr.edu.pl%1,        Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,        Thea%Scognamiglio%NULL%1,        Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,   Paul%Romer%xref no email%1,   Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,        Henrico%Citrawijaya%NULL%1,        Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,   Ashish%Sood%xref no email%1,   Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,        Fan%Xia%NULL%1,        Sanyi%Tang%NULL%1,        Nicola Luigi%Bragazzi%NULL%1,        Qian%Li%NULL%1,        Xiaodan%Sun%NULL%1,        Juhua%Liang%NULL%1,        Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,        Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,    Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Many European countries have responded to the COVID-19 pandemic by implementing nationwide protection measures and lockdowns1.
+ However, the epidemic could rebound when such measures are relaxed, possibly leading to a requirement for a second or more, repeated lockdowns2.
+ Here, we present results of a stochastic agent-based microsimulation model of the COVID-19 epidemic in France.
+ We examined the potential impact of post-lockdown measures, including physical distancing, mask-wearing and shielding individuals who are the most vulnerable to severe COVID-19 infection, on cumulative disease incidence and mortality, and on intensive care unit (ICU)-bed occupancy.
+ While lockdown is effective in containing the viral spread, once lifted, regardless of duration, it would be unlikely to prevent a rebound.
+ Both physical distancing and mask-wearing, although effective in slowing the epidemic and in reducing mortality, would also be ineffective in ultimately preventing ICUs from becoming overwhelmed and a subsequent second lockdown.
+ However, these measures coupled with the shielding of vulnerable people would be associated with better outcomes, including lower mortality and maintaining an adequate ICU capacity to prevent a second lockdown.
+ Benefits would nonetheless be markedly reduced if most people do not adhere to these measures, or if they are not maintained for a sufficiently long period.
+A new study that models the COVID-19 epidemic in France suggests that although a second peak is likely unavoidable, maintaining social distancing and wearing masks when lockdown restrictions are lifted, as well as continuing to shelter vulnerable individuals, will reduce mortality and avoid overwhelming ICU facilities.
+</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%0,  Martin%Blachier%null%1,  Carlos%Blanco%null%1,  Mark%Olfson%null%1,  Marc%Massetti%null%1,  Marina Sánchez%Rico%null%1,  Frédéric%Limosin%null%1,  Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,         Hai-Lian%Chen%NULL%1,         Jing%Xu%NULL%1,         Ling-Ning%Wu%NULL%1,         Jie-Jia%Li%NULL%1,         Kai%Chen%NULL%1,         Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,    Jiaxin%Chen%xref no email%1,    Yaqing%Zhou%xref no email%1,    Lei%Hua%xref no email%1,    Jinxia%Yuan%xref no email%1,    Shu%He%xref no email%1,    Yi%Guo%xref no email%1,    Sheng%Zhang%xref no email%2,    Qiaowei%Jia%xref no email%1,    Chenhui%Zhao%xref no email%1,    Jing%Zhang%xref no email%1,    Guangxu%Xu%xref no email%1,    Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,         Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,         Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,         Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,         Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,         Jacek%Bania%jacek.bania@upwr.edu.pl%1,         Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,         Thea%Scognamiglio%NULL%1,         Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,    Paul%Romer%xref no email%1,    Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,         Henrico%Citrawijaya%NULL%1,         Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,    Ashish%Sood%xref no email%1,    Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,         Fan%Xia%NULL%1,         Sanyi%Tang%NULL%1,         Nicola Luigi%Bragazzi%NULL%1,         Qian%Li%NULL%1,         Xiaodan%Sun%NULL%1,         Juhua%Liang%NULL%1,         Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,         Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -866,7 +939,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -921,10 +994,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -953,7 +1026,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -982,7 +1055,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1011,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1040,7 +1113,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1069,7 +1142,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1127,7 +1200,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1156,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1185,7 +1258,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="169">
   <si>
     <t>Doi</t>
   </si>
@@ -565,6 +565,66 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,         Fan%Xia%NULL%1,         Sanyi%Tang%NULL%1,         Nicola Luigi%Bragazzi%NULL%1,         Qian%Li%NULL%1,         Xiaodan%Sun%NULL%1,         Juhua%Liang%NULL%1,         Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,         Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,     Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,   Martin%Blachier%null%1,   Carlos%Blanco%null%1,   Mark%Olfson%null%1,   Marc%Massetti%null%1,   Marina Sánchez%Rico%null%1,   Frédéric%Limosin%null%1,   Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,          Hai-Lian%Chen%NULL%1,          Jing%Xu%NULL%1,          Ling-Ning%Wu%NULL%1,          Jie-Jia%Li%NULL%1,          Kai%Chen%NULL%1,          Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,     Jiaxin%Chen%xref no email%1,     Yaqing%Zhou%xref no email%1,     Lei%Hua%xref no email%1,     Jinxia%Yuan%xref no email%1,     Shu%He%xref no email%1,     Yi%Guo%xref no email%1,     Sheng%Zhang%xref no email%2,     Qiaowei%Jia%xref no email%1,     Chenhui%Zhao%xref no email%1,     Jing%Zhang%xref no email%1,     Guangxu%Xu%xref no email%1,     Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,          Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,          Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,          Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,          Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,          Jacek%Bania%jacek.bania@upwr.edu.pl%1,          Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,          Thea%Scognamiglio%NULL%1,          Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,     Paul%Romer%xref no email%1,     Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,          Henrico%Citrawijaya%NULL%1,          Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,     Ashish%Sood%xref no email%1,     Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,          Fan%Xia%NULL%1,          Sanyi%Tang%NULL%1,          Nicola Luigi%Bragazzi%NULL%1,          Qian%Li%NULL%1,          Xiaodan%Sun%NULL%1,          Juhua%Liang%NULL%1,          Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,          Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,      Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,    Martin%Blachier%null%1,    Carlos%Blanco%null%1,    Mark%Olfson%null%1,    Marc%Massetti%null%1,    Marina Sánchez%Rico%null%1,    Frédéric%Limosin%null%1,    Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,           Hai-Lian%Chen%NULL%1,           Jing%Xu%NULL%1,           Ling-Ning%Wu%NULL%1,           Jie-Jia%Li%NULL%1,           Kai%Chen%NULL%1,           Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,      Jiaxin%Chen%xref no email%1,      Yaqing%Zhou%xref no email%1,      Lei%Hua%xref no email%1,      Jinxia%Yuan%xref no email%1,      Shu%He%xref no email%1,      Yi%Guo%xref no email%1,      Sheng%Zhang%xref no email%2,      Qiaowei%Jia%xref no email%1,      Chenhui%Zhao%xref no email%1,      Jing%Zhang%xref no email%1,      Guangxu%Xu%xref no email%1,      Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,           Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,           Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,           Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,           Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,           Jacek%Bania%jacek.bania@upwr.edu.pl%1,           Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,           Thea%Scognamiglio%NULL%1,           Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,      Paul%Romer%xref no email%1,      Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,           Henrico%Citrawijaya%NULL%1,           Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,      Ashish%Sood%xref no email%1,      Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,           Fan%Xia%NULL%1,           Sanyi%Tang%NULL%1,           Nicola Luigi%Bragazzi%NULL%1,           Qian%Li%NULL%1,           Xiaodan%Sun%NULL%1,           Juhua%Liang%NULL%1,           Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,           Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -939,7 +999,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -997,7 +1057,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1026,7 +1086,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1055,7 +1115,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1084,7 +1144,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1113,7 +1173,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1142,7 +1202,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1200,7 +1260,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1229,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1258,7 +1318,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="179">
   <si>
     <t>Doi</t>
   </si>
@@ -625,6 +625,36 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,           Fan%Xia%NULL%1,           Sanyi%Tang%NULL%1,           Nicola Luigi%Bragazzi%NULL%1,           Qian%Li%NULL%1,           Xiaodan%Sun%NULL%1,           Juhua%Liang%NULL%1,           Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,           Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,       Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,     Martin%Blachier%null%1,     Carlos%Blanco%null%1,     Mark%Olfson%null%1,     Marc%Massetti%null%1,     Marina Sánchez%Rico%null%1,     Frédéric%Limosin%null%1,     Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,            Hai-Lian%Chen%NULL%1,            Jing%Xu%NULL%1,            Ling-Ning%Wu%NULL%1,            Jie-Jia%Li%NULL%1,            Kai%Chen%NULL%1,            Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,       Jiaxin%Chen%xref no email%1,       Yaqing%Zhou%xref no email%1,       Lei%Hua%xref no email%1,       Jinxia%Yuan%xref no email%1,       Shu%He%xref no email%1,       Yi%Guo%xref no email%1,       Sheng%Zhang%xref no email%2,       Qiaowei%Jia%xref no email%1,       Chenhui%Zhao%xref no email%1,       Jing%Zhang%xref no email%1,       Guangxu%Xu%xref no email%1,       Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,            Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,            Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,            Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,            Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,            Jacek%Bania%jacek.bania@upwr.edu.pl%1,            Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,            Thea%Scognamiglio%NULL%1,            Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,       Paul%Romer%xref no email%1,       Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,            Henrico%Citrawijaya%NULL%1,            Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,       Ashish%Sood%xref no email%1,       Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,            Fan%Xia%NULL%1,            Sanyi%Tang%NULL%1,            Nicola Luigi%Bragazzi%NULL%1,            Qian%Li%NULL%1,            Xiaodan%Sun%NULL%1,            Juhua%Liang%NULL%1,            Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,            Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1029,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1057,7 +1087,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1086,7 +1116,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1115,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1144,7 +1174,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1173,7 +1203,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1202,7 +1232,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1260,7 +1290,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1289,7 +1319,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1318,7 +1348,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="189">
   <si>
     <t>Doi</t>
   </si>
@@ -655,6 +655,36 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,            Fan%Xia%NULL%1,            Sanyi%Tang%NULL%1,            Nicola Luigi%Bragazzi%NULL%1,            Qian%Li%NULL%1,            Xiaodan%Sun%NULL%1,            Juhua%Liang%NULL%1,            Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,            Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,        Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,      Martin%Blachier%null%1,      Carlos%Blanco%null%1,      Mark%Olfson%null%1,      Marc%Massetti%null%1,      Marina Sánchez%Rico%null%1,      Frédéric%Limosin%null%1,      Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,             Hai-Lian%Chen%NULL%1,             Jing%Xu%NULL%1,             Ling-Ning%Wu%NULL%1,             Jie-Jia%Li%NULL%1,             Kai%Chen%NULL%1,             Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,        Jiaxin%Chen%xref no email%1,        Yaqing%Zhou%xref no email%1,        Lei%Hua%xref no email%1,        Jinxia%Yuan%xref no email%1,        Shu%He%xref no email%1,        Yi%Guo%xref no email%1,        Sheng%Zhang%xref no email%2,        Qiaowei%Jia%xref no email%1,        Chenhui%Zhao%xref no email%1,        Jing%Zhang%xref no email%1,        Guangxu%Xu%xref no email%1,        Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,             Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,             Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,             Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,             Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,             Jacek%Bania%jacek.bania@upwr.edu.pl%1,             Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,             Thea%Scognamiglio%NULL%1,             Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,        Paul%Romer%xref no email%1,        Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,             Henrico%Citrawijaya%NULL%1,             Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,        Ashish%Sood%xref no email%1,        Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,             Fan%Xia%NULL%1,             Sanyi%Tang%NULL%1,             Nicola Luigi%Bragazzi%NULL%1,             Qian%Li%NULL%1,             Xiaodan%Sun%NULL%1,             Juhua%Liang%NULL%1,             Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,             Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1059,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1087,7 +1117,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1116,7 +1146,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1145,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1174,7 +1204,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1203,7 +1233,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1232,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1290,7 +1320,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1319,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1348,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="209">
   <si>
     <t>Doi</t>
   </si>
@@ -685,6 +685,66 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,             Fan%Xia%NULL%1,             Sanyi%Tang%NULL%1,             Nicola Luigi%Bragazzi%NULL%1,             Qian%Li%NULL%1,             Xiaodan%Sun%NULL%1,             Juhua%Liang%NULL%1,             Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,             Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,         Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,       Martin%Blachier%null%1,       Carlos%Blanco%null%1,       Mark%Olfson%null%1,       Marc%Massetti%null%1,       Marina Sánchez%Rico%null%1,       Frédéric%Limosin%null%1,       Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,              Hai-Lian%Chen%NULL%1,              Jing%Xu%NULL%1,              Ling-Ning%Wu%NULL%1,              Jie-Jia%Li%NULL%1,              Kai%Chen%NULL%1,              Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,         Jiaxin%Chen%xref no email%1,         Yaqing%Zhou%xref no email%1,         Lei%Hua%xref no email%1,         Jinxia%Yuan%xref no email%1,         Shu%He%xref no email%1,         Yi%Guo%xref no email%1,         Sheng%Zhang%xref no email%2,         Qiaowei%Jia%xref no email%1,         Chenhui%Zhao%xref no email%1,         Jing%Zhang%xref no email%1,         Guangxu%Xu%xref no email%1,         Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,              Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,              Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,              Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,              Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,              Jacek%Bania%jacek.bania@upwr.edu.pl%1,              Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,              Thea%Scognamiglio%NULL%1,              Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,         Paul%Romer%xref no email%1,         Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,              Henrico%Citrawijaya%NULL%1,              Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,         Ashish%Sood%xref no email%1,         Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,              Fan%Xia%NULL%1,              Sanyi%Tang%NULL%1,              Nicola Luigi%Bragazzi%NULL%1,              Qian%Li%NULL%1,              Xiaodan%Sun%NULL%1,              Juhua%Liang%NULL%1,              Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,              Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,          Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,        Martin%Blachier%null%1,        Carlos%Blanco%null%1,        Mark%Olfson%null%1,        Marc%Massetti%null%1,        Marina Sánchez%Rico%null%1,        Frédéric%Limosin%null%1,        Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,               Hai-Lian%Chen%NULL%1,               Jing%Xu%NULL%1,               Ling-Ning%Wu%NULL%1,               Jie-Jia%Li%NULL%1,               Kai%Chen%NULL%1,               Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,          Jiaxin%Chen%xref no email%1,          Yaqing%Zhou%xref no email%1,          Lei%Hua%xref no email%1,          Jinxia%Yuan%xref no email%1,          Shu%He%xref no email%1,          Yi%Guo%xref no email%1,          Sheng%Zhang%xref no email%2,          Qiaowei%Jia%xref no email%1,          Chenhui%Zhao%xref no email%1,          Jing%Zhang%xref no email%1,          Guangxu%Xu%xref no email%1,          Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,               Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,               Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,               Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,               Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,               Jacek%Bania%jacek.bania@upwr.edu.pl%1,               Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,               Thea%Scognamiglio%NULL%1,               Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,          Paul%Romer%xref no email%1,          Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,               Henrico%Citrawijaya%NULL%1,               Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,          Ashish%Sood%xref no email%1,          Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,               Fan%Xia%NULL%1,               Sanyi%Tang%NULL%1,               Nicola Luigi%Bragazzi%NULL%1,               Qian%Li%NULL%1,               Xiaodan%Sun%NULL%1,               Juhua%Liang%NULL%1,               Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,               Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1119,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1117,7 +1177,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1146,7 +1206,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1175,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1204,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1233,7 +1293,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1262,7 +1322,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1320,7 +1380,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1349,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1378,7 +1438,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="219">
   <si>
     <t>Doi</t>
   </si>
@@ -745,6 +745,36 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,               Fan%Xia%NULL%1,               Sanyi%Tang%NULL%1,               Nicola Luigi%Bragazzi%NULL%1,               Qian%Li%NULL%1,               Xiaodan%Sun%NULL%1,               Juhua%Liang%NULL%1,               Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,               Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,           Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,         Martin%Blachier%null%1,         Carlos%Blanco%null%1,         Mark%Olfson%null%1,         Marc%Massetti%null%1,         Marina Sánchez%Rico%null%1,         Frédéric%Limosin%null%1,         Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                Hai-Lian%Chen%NULL%1,                Jing%Xu%NULL%1,                Ling-Ning%Wu%NULL%1,                Jie-Jia%Li%NULL%1,                Kai%Chen%NULL%1,                Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,           Jiaxin%Chen%xref no email%1,           Yaqing%Zhou%xref no email%1,           Lei%Hua%xref no email%1,           Jinxia%Yuan%xref no email%1,           Shu%He%xref no email%1,           Yi%Guo%xref no email%1,           Sheng%Zhang%xref no email%2,           Qiaowei%Jia%xref no email%1,           Chenhui%Zhao%xref no email%1,           Jing%Zhang%xref no email%1,           Guangxu%Xu%xref no email%1,           Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                Jacek%Bania%jacek.bania@upwr.edu.pl%1,                Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                Thea%Scognamiglio%NULL%1,                Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,           Paul%Romer%xref no email%1,           Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                Henrico%Citrawijaya%NULL%1,                Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,           Ashish%Sood%xref no email%1,           Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                Fan%Xia%NULL%1,                Sanyi%Tang%NULL%1,                Nicola Luigi%Bragazzi%NULL%1,                Qian%Li%NULL%1,                Xiaodan%Sun%NULL%1,                Juhua%Liang%NULL%1,                Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1149,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1177,7 +1207,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1206,7 +1236,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1235,7 +1265,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1264,7 +1294,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1293,7 +1323,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1322,7 +1352,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1380,7 +1410,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1409,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1438,7 +1468,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="232">
   <si>
     <t>Doi</t>
   </si>
@@ -775,6 +775,45 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,                Fan%Xia%NULL%1,                Sanyi%Tang%NULL%1,                Nicola Luigi%Bragazzi%NULL%1,                Qian%Li%NULL%1,                Xiaodan%Sun%NULL%1,                Juhua%Liang%NULL%1,                Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,            Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,          Martin%Blachier%null%1,          Carlos%Blanco%null%1,          Mark%Olfson%null%1,          Marc%Massetti%null%1,          Marina Sánchez%Rico%null%1,          Frédéric%Limosin%null%1,          Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                 Hai-Lian%Chen%NULL%1,                 Jing%Xu%NULL%1,                 Ling-Ning%Wu%NULL%1,                 Jie-Jia%Li%NULL%1,                 Kai%Chen%NULL%1,                 Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,            Jiaxin%Chen%xref no email%1,            Yaqing%Zhou%xref no email%1,            Lei%Hua%xref no email%1,            Jinxia%Yuan%xref no email%1,            Shu%He%xref no email%1,            Yi%Guo%xref no email%1,            Sheng%Zhang%xref no email%2,            Qiaowei%Jia%xref no email%1,            Chenhui%Zhao%xref no email%1,            Jing%Zhang%xref no email%1,            Guangxu%Xu%xref no email%1,            Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                 Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                 Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                 Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                 Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                 Jacek%Bania%jacek.bania@upwr.edu.pl%1,                 Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                 Thea%Scognamiglio%NULL%1,                 Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,            Paul%Romer%xref no email%1,            Sten%Linnarsson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                 Henrico%Citrawijaya%NULL%1,                 Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,            Ashish%Sood%xref no email%1,            Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                 Fan%Xia%NULL%1,                 Sanyi%Tang%NULL%1,                 Nicola Luigi%Bragazzi%NULL%1,                 Qian%Li%NULL%1,                 Xiaodan%Sun%NULL%1,                 Juhua%Liang%NULL%1,                 Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                 Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1188,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1161,7 +1200,7 @@
         <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1190,7 +1229,7 @@
         <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1207,7 +1246,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1219,7 +1258,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1236,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1248,7 +1287,7 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1265,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1277,7 +1316,7 @@
         <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1294,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1306,7 +1345,7 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1323,7 +1362,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1352,7 +1391,7 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1364,7 +1403,7 @@
         <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,7 +1432,7 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1410,7 +1449,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1422,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1439,7 +1478,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1451,7 +1490,7 @@
         <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1468,7 +1507,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
@@ -1480,7 +1519,7 @@
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="250">
   <si>
     <t>Doi</t>
   </si>
@@ -814,6 +814,64 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,                 Fan%Xia%NULL%1,                 Sanyi%Tang%NULL%1,                 Nicola Luigi%Bragazzi%NULL%1,                 Qian%Li%NULL%1,                 Xiaodan%Sun%NULL%1,                 Juhua%Liang%NULL%1,                 Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                 Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%1,             Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early detection of superspreaders by mass group pool testing can mitigate COVID-19 pandemic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackgroundMost of epidemiological models applied for COVID-19 do not consider heterogeneity in infectiousness and impact of superspreaders, despite the broad viral loading distributions amongst COVID-19 positive people (1 - 106 per mL). Also, mass group testing is not used regardless to existing shortage of tests. I propose new strategy for early detection of superspreaders with reasonable number of RT-PCR tests, which can dramatically mitigate development COVID-19 pandemic and even turn it endemic.
+MethodsI used stochastic social-epidemiological SEIAR model, where S-suspected, E-exposed, I-infectious, A-admitted (confirmed COVID-19 positive, who are admitted to hospital or completely isolated), R-recovered. The model was applied to real COVID-19 dynamics in London, Moscow and New York City.
+FindingsViral loading data measured by RT-PCR were fitted by broad log-normal distribution, which governed high importance of superspreaders. The proposed full scale model of a metropolis shows that top 10% spreaders (100+ higher viral loading than median infector) transmit 45% of new cases. Rapid isolation of superspreaders leads to 4-8 fold mitigation of pandemic depending on applied quarantine strength and amount of currently infected people. High viral loading allows efficient group "matrix" pool testing of population focused on detection of the superspreaders requiring remarkably small amount of tests.
+InterpretationThe model and new testing strategy may prevent thousand or millions COVID-19 deaths requiring just about 5000 daily RT-PCR test for big 12 million city such as Moscow. Though applied to COVID-19 pandemic the results are universal and can be used for other infectious heterogenous epidemics.
+FundingNo funding </t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,  M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,           Martin%Blachier%null%1,           Carlos%Blanco%null%1,           Mark%Olfson%null%1,           Marc%Massetti%null%1,           Marina Sánchez%Rico%null%1,           Frédéric%Limosin%null%1,           Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                  Hai-Lian%Chen%NULL%1,                  Jing%Xu%NULL%1,                  Ling-Ning%Wu%NULL%1,                  Jie-Jia%Li%NULL%1,                  Kai%Chen%NULL%1,                  Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%1,             Jiaxin%Chen%xref no email%1,             Yaqing%Zhou%xref no email%1,             Lei%Hua%xref no email%1,             Jinxia%Yuan%xref no email%1,             Shu%He%xref no email%1,             Yi%Guo%xref no email%1,             Sheng%Zhang%xref no email%2,             Qiaowei%Jia%xref no email%1,             Chenhui%Zhao%xref no email%1,             Jing%Zhang%xref no email%1,             Guangxu%Xu%xref no email%1,             Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                  Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                  Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                  Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                  Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                  Jacek%Bania%jacek.bania@upwr.edu.pl%1,                  Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                  Thea%Scognamiglio%NULL%1,                  Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population-scale testing can suppress the spread of COVID-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We propose an additional intervention that would contribute to the control of the COVID-19 pandemic, offer more protection for people working in essential jobs, and help guide an eventual reopening of society. The intervention is based on: (1) testing every individual (2) repeatedly, and (3) self-quarantine of infected individuals. Using a standard epidemiological model (SIR), we show here that by identification and isolation of the majority of infectious individuals, including those who may be asymptomatic, the reproduction number R0 of SARS-CoV-2 would be reduced well below 1.0, and the epidemic would collapse. We replicate these observations in a more complex stochastic dynamic model on a social network graph. We also find that the testing regime would be additive to other interventions, and be effective at any level of prevalence. If adopted as a policy, any industrial society could sustain the regime for as long as it takes to find a safe and effective cure or vaccine. Our model also indicates that unlike sampling-based tests, population-scale testing does not need to be very accurate: false negative rates up to 15% could be tolerated if 80% comply with testing every ten days, and false positives can be almost arbitrarily high when a high fraction of the population is already effectively quarantined. Testing at the required scale would be feasible if existing qPCR-based methods are scaled up and multiplexed. A mass produced, low throughput field test kit could also be carried out at home. Economic analysis also supports the feasibility of the approach: current reagent costs for tests are in the range of a dollar or less, and the estimated benefits for population-scale testing are so large that the policy would be cost-effective even if the costs were larger by more than two orders of magnitude. To identify both active and previous infections, both viral RNA and antibodies could be tested. All technologies to build such test kits, and to produce them in the scale required to test the entire worlds population exist already. Integrating them, scaling up production, and implementing the testing regime will require resources and planning, but at a scale that is very small compared to the effort that every nation would devote to defending itself against a more traditional foe. </t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,             Paul%Romer%xref no email%1,             Sten%Linnarsson%xref no email%1,  J.%Taipale%null%1,  P.% Romer%null%1,  S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                  Henrico%Citrawijaya%NULL%1,                  Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%1,             Ashish%Sood%xref no email%1,             Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                  Fan%Xia%NULL%1,                  Sanyi%Tang%NULL%1,                  Nicola Luigi%Bragazzi%NULL%1,                  Qian%Li%NULL%1,                  Xiaodan%Sun%NULL%1,                  Juhua%Liang%NULL%1,                  Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                  Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1246,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1211,22 +1269,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
         <v>220</v>
@@ -1246,7 +1304,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1275,7 +1333,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1304,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1333,7 +1391,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1362,7 +1420,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1385,22 +1443,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="I9" t="s">
         <v>220</v>
@@ -1449,7 +1507,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1478,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1507,7 +1565,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="298">
   <si>
     <t>Doi</t>
   </si>
@@ -872,6 +872,150 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,                  Fan%Xia%NULL%1,                  Sanyi%Tang%NULL%1,                  Nicola Luigi%Bragazzi%NULL%1,                  Qian%Li%NULL%1,                  Xiaodan%Sun%NULL%1,                  Juhua%Liang%NULL%1,                  Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                  Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Jean%Dolbeault%xref no email%0, Gabriel%Turinici%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: EDP Sciences</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,   M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,            Martin%Blachier%null%1,            Carlos%Blanco%null%1,            Mark%Olfson%null%1,            Marc%Massetti%null%1,            Marina Sánchez%Rico%null%1,            Frédéric%Limosin%null%1,            Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                   Hai-Lian%Chen%NULL%1,                   Jing%Xu%NULL%1,                   Ling-Ning%Wu%NULL%1,                   Jie-Jia%Li%NULL%1,                   Kai%Chen%NULL%1,                   Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Can%Hou%xref no email%0, Jiaxin%Chen%xref no email%1, Yaqing%Zhou%xref no email%1, Lei%Hua%xref no email%1, Jinxia%Yuan%xref no email%1, Shu%He%xref no email%1, Yi%Guo%xref no email%1, Sheng%Zhang%xref no email%2, Qiaowei%Jia%xref no email%1, Chenhui%Zhao%xref no email%1, Jing%Zhang%xref no email%1, Guangxu%Xu%xref no email%1, Enzhi%Jia%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                   Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                   Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                   Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                   Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                   Jacek%Bania%jacek.bania@upwr.edu.pl%1,                   Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                   Thea%Scognamiglio%NULL%1,                   Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,              Paul%Romer%xref no email%1,              Sten%Linnarsson%xref no email%1,   J.%Taipale%null%1,   P.% Romer%null%1,   S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                   Henrico%Citrawijaya%NULL%1,                   Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gerard J.%Tellis%xref no email%0, Ashish%Sood%xref no email%1, Nitish%Sood%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Elsevier BV</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                   Fan%Xia%NULL%1,                   Sanyi%Tang%NULL%1,                   Nicola Luigi%Bragazzi%NULL%1,                   Qian%Li%NULL%1,                   Xiaodan%Sun%NULL%1,                   Juhua%Liang%NULL%1,                   Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                   Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,    M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,             Martin%Blachier%null%1,             Carlos%Blanco%null%1,             Mark%Olfson%null%1,             Marc%Massetti%null%1,             Marina Sánchez%Rico%null%1,             Frédéric%Limosin%null%1,             Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                    Hai-Lian%Chen%NULL%1,                    Jing%Xu%NULL%1,                    Ling-Ning%Wu%NULL%1,                    Jie-Jia%Li%NULL%1,                    Kai%Chen%NULL%1,                    Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                    Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                    Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                    Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                    Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                    Jacek%Bania%jacek.bania@upwr.edu.pl%1,                    Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                    Thea%Scognamiglio%NULL%1,                    Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,               Paul%Romer%xref no email%1,               Sten%Linnarsson%xref no email%1,    J.%Taipale%null%1,    P.% Romer%null%1,    S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                    Henrico%Citrawijaya%NULL%1,                    Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                    Fan%Xia%NULL%1,                    Sanyi%Tang%NULL%1,                    Nicola Luigi%Bragazzi%NULL%1,                    Qian%Li%NULL%1,                    Xiaodan%Sun%NULL%1,                    Juhua%Liang%NULL%1,                    Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                    Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,     M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,              Martin%Blachier%null%1,              Carlos%Blanco%null%1,              Mark%Olfson%null%1,              Marc%Massetti%null%1,              Marina Sánchez%Rico%null%1,              Frédéric%Limosin%null%1,              Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                     Hai-Lian%Chen%NULL%1,                     Jing%Xu%NULL%1,                     Ling-Ning%Wu%NULL%1,                     Jie-Jia%Li%NULL%1,                     Kai%Chen%NULL%1,                     Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                     Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                     Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                     Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                     Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                     Jacek%Bania%jacek.bania@upwr.edu.pl%1,                     Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                     Thea%Scognamiglio%NULL%1,                     Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,                Paul%Romer%xref no email%1,                Sten%Linnarsson%xref no email%1,     J.%Taipale%null%1,     P.% Romer%null%1,     S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                     Henrico%Citrawijaya%NULL%1,                     Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                     Fan%Xia%NULL%1,                     Sanyi%Tang%NULL%1,                     Nicola Luigi%Bragazzi%NULL%1,                     Qian%Li%NULL%1,                     Xiaodan%Sun%NULL%1,                     Juhua%Liang%NULL%1,                     Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                     Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,      M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,               Martin%Blachier%null%1,               Carlos%Blanco%null%1,               Mark%Olfson%null%1,               Marc%Massetti%null%1,               Marina Sánchez%Rico%null%1,               Frédéric%Limosin%null%1,               Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                      Hai-Lian%Chen%NULL%1,                      Jing%Xu%NULL%1,                      Ling-Ning%Wu%NULL%1,                      Jie-Jia%Li%NULL%1,                      Kai%Chen%NULL%1,                      Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                      Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                      Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                      Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                      Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                      Jacek%Bania%jacek.bania@upwr.edu.pl%1,                      Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                      Thea%Scognamiglio%NULL%1,                      Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,                 Paul%Romer%xref no email%1,                 Sten%Linnarsson%xref no email%1,      J.%Taipale%null%1,      P.% Romer%null%1,      S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                      Henrico%Citrawijaya%NULL%1,                      Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                      Fan%Xia%NULL%1,                      Sanyi%Tang%NULL%1,                      Nicola Luigi%Bragazzi%NULL%1,                      Qian%Li%NULL%1,                      Xiaodan%Sun%NULL%1,                      Juhua%Liang%NULL%1,                      Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                      Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,       M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,                Martin%Blachier%null%1,                Carlos%Blanco%null%1,                Mark%Olfson%null%1,                Marc%Massetti%null%1,                Marina Sánchez%Rico%null%1,                Frédéric%Limosin%null%1,                Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                       Hai-Lian%Chen%NULL%1,                       Jing%Xu%NULL%1,                       Ling-Ning%Wu%NULL%1,                       Jie-Jia%Li%NULL%1,                       Kai%Chen%NULL%1,                       Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                       Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                       Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                       Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                       Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                       Jacek%Bania%jacek.bania@upwr.edu.pl%1,                       Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                       Thea%Scognamiglio%NULL%1,                       Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,                  Paul%Romer%xref no email%1,                  Sten%Linnarsson%xref no email%1,       J.%Taipale%null%1,       P.% Romer%null%1,       S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                       Henrico%Citrawijaya%NULL%1,                       Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                       Fan%Xia%NULL%1,                       Sanyi%Tang%NULL%1,                       Nicola Luigi%Bragazzi%NULL%1,                       Qian%Li%NULL%1,                       Xiaodan%Sun%NULL%1,                       Juhua%Liang%NULL%1,                       Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                       Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1231,6 +1375,9 @@
       <c r="I1" t="s">
         <v>23</v>
       </c>
+      <c r="J1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1246,7 +1393,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1258,7 +1405,10 @@
         <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1275,7 +1425,7 @@
         <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1288,6 +1438,9 @@
       </c>
       <c r="I3" t="s">
         <v>220</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1304,7 +1457,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1317,6 +1470,9 @@
       </c>
       <c r="I4" t="s">
         <v>220</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1333,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1346,6 +1502,9 @@
       </c>
       <c r="I5" t="s">
         <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1362,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1371,10 +1530,13 @@
         <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1391,7 +1553,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1404,6 +1566,9 @@
       </c>
       <c r="I7" t="s">
         <v>223</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1420,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1433,6 +1598,9 @@
       </c>
       <c r="I8" t="s">
         <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1449,7 +1617,7 @@
         <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1462,6 +1630,9 @@
       </c>
       <c r="I9" t="s">
         <v>220</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1492,6 +1663,9 @@
       <c r="I10" t="s">
         <v>228</v>
       </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -1507,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1520,6 +1694,9 @@
       </c>
       <c r="I11" t="s">
         <v>223</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1536,7 +1713,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1548,7 +1725,10 @@
         <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1565,7 +1745,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
@@ -1578,6 +1758,9 @@
       </c>
       <c r="I13" t="s">
         <v>228</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/85.xlsx
+++ b/Covid_19_Dataset_and_References/References/85.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="314">
   <si>
     <t>Doi</t>
   </si>
@@ -1016,6 +1016,54 @@
   </si>
   <si>
     <t>[Biao%Tang%NULL%1,                       Fan%Xia%NULL%1,                       Sanyi%Tang%NULL%1,                       Nicola Luigi%Bragazzi%NULL%1,                       Qian%Li%NULL%1,                       Xiaodan%Sun%NULL%1,                       Juhua%Liang%NULL%1,                       Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                       Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,        M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,                 Martin%Blachier%null%1,                 Carlos%Blanco%null%1,                 Mark%Olfson%null%1,                 Marc%Massetti%null%1,                 Marina Sánchez%Rico%null%1,                 Frédéric%Limosin%null%1,                 Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                        Hai-Lian%Chen%NULL%1,                        Jing%Xu%NULL%1,                        Ling-Ning%Wu%NULL%1,                        Jie-Jia%Li%NULL%1,                        Kai%Chen%NULL%1,                        Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                        Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                        Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                        Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                        Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                        Jacek%Bania%jacek.bania@upwr.edu.pl%1,                        Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                        Thea%Scognamiglio%NULL%1,                        Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,                   Paul%Romer%xref no email%1,                   Sten%Linnarsson%xref no email%1,        J.%Taipale%null%1,        P.% Romer%null%1,        S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                        Henrico%Citrawijaya%NULL%1,                        Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                        Fan%Xia%NULL%1,                        Sanyi%Tang%NULL%1,                        Nicola Luigi%Bragazzi%NULL%1,                        Qian%Li%NULL%1,                        Xiaodan%Sun%NULL%1,                        Juhua%Liang%NULL%1,                        Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                        Jianhong%Wu%wujh@yorku.ca%1]</t>
+  </si>
+  <si>
+    <t>[M.B.%Gongalsky%xref no email%1,         M. B. %Gongalsky%null%1]</t>
+  </si>
+  <si>
+    <t>[ Nicolas%Hoertel%null%1,                  Martin%Blachier%null%1,                  Carlos%Blanco%null%1,                  Mark%Olfson%null%1,                  Marc%Massetti%null%1,                  Marina Sánchez%Rico%null%1,                  Frédéric%Limosin%null%1,                  Henri%Leleu%null%1]</t>
+  </si>
+  <si>
+    <t>[Tuo%Ji%NULL%1,                         Hai-Lian%Chen%NULL%1,                         Jing%Xu%NULL%1,                         Ling-Ning%Wu%NULL%1,                         Jie-Jia%Li%NULL%1,                         Kai%Chen%NULL%1,                         Gang%Qin%tonygqin@ntu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Hien%Lau%hlau2@uci.edu%1,                         Veria%Khosrawipour%veriakhosrawipour@yahoo.de%1,                         Piotr%Kocbach%piotr.kocbach@uwm.edu.pl%1,                         Agata%Mikolajczyk%agata.mikolajczyk@upwr.edu.pl%1,                         Justyna%Schubert%justyna.schubert@upwr.edu.pl%1,                         Jacek%Bania%jacek.bania@upwr.edu.pl%1,                         Tanja%Khosrawipour%tkhosrawipour@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Carlo%Signorelli%NULL%1,                         Thea%Scognamiglio%NULL%1,                         Anna%Odone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jussi%Taipale%xref no email%1,                    Paul%Romer%xref no email%1,                    Sten%Linnarsson%xref no email%1,         J.%Taipale%null%1,         P.% Romer%null%1,         S. % Linnarsson%null%1]</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%1,                         Henrico%Citrawijaya%NULL%1,                         Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Tang%NULL%1,                         Fan%Xia%NULL%1,                         Sanyi%Tang%NULL%1,                         Nicola Luigi%Bragazzi%NULL%1,                         Qian%Li%NULL%1,                         Xiaodan%Sun%NULL%1,                         Juhua%Liang%NULL%1,                         Yanni%Xiao%yxiao@mail.xjtu.edu.cn%1,                         Jianhong%Wu%wujh@yorku.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1441,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1425,7 +1473,7 @@
         <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1457,7 +1505,7 @@
         <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1489,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1521,7 +1569,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1553,7 +1601,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1585,7 +1633,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1617,7 +1665,7 @@
         <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1681,7 +1729,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1713,7 +1761,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1745,7 +1793,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
